--- a/dataprovide/test1.xlsx
+++ b/dataprovide/test1.xlsx
@@ -13453,49 +13453,49 @@
       <c r="C5" s="49" t="n"/>
       <c r="D5" s="60" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-09-02</t>
         </is>
       </c>
       <c r="E5" s="50" t="n"/>
       <c r="F5" s="49" t="n"/>
       <c r="G5" s="60" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-09-01</t>
         </is>
       </c>
       <c r="H5" s="50" t="n"/>
       <c r="I5" s="49" t="n"/>
       <c r="J5" s="60" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2021-08-31</t>
         </is>
       </c>
       <c r="K5" s="50" t="n"/>
       <c r="L5" s="49" t="n"/>
       <c r="M5" s="60" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2021-08-30</t>
         </is>
       </c>
       <c r="N5" s="50" t="n"/>
       <c r="O5" s="49" t="n"/>
       <c r="P5" s="60" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-08-29</t>
         </is>
       </c>
       <c r="Q5" s="50" t="n"/>
       <c r="R5" s="49" t="n"/>
       <c r="S5" s="60" t="inlineStr">
         <is>
-          <t>2021-08-29</t>
+          <t>2021-08-28</t>
         </is>
       </c>
       <c r="T5" s="50" t="n"/>
       <c r="U5" s="49" t="n"/>
       <c r="V5" s="60" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2021-08-27</t>
         </is>
       </c>
       <c r="W5" s="50" t="n"/>
@@ -13623,18 +13623,10 @@
       <c r="A7" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="n">
-        <v>111</v>
-      </c>
-      <c r="C7" s="54" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" s="61" t="n">
-        <v>6771</v>
-      </c>
-      <c r="E7" s="53" t="n">
-        <v>111</v>
-      </c>
+      <c r="B7" s="34" t="n"/>
+      <c r="C7" s="54" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="53" t="n"/>
       <c r="F7" s="54" t="n"/>
       <c r="G7" s="61" t="n"/>
       <c r="H7" s="53" t="n"/>
@@ -13660,26 +13652,20 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C8" s="54" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D8" s="61" t="n">
-        <v>1342</v>
+        <v>122</v>
       </c>
       <c r="E8" s="53" t="n">
-        <v>22</v>
-      </c>
-      <c r="F8" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="61" t="n">
-        <v>122</v>
-      </c>
-      <c r="H8" s="53" t="n">
-        <v>2</v>
-      </c>
+      <c r="F8" s="54" t="n"/>
+      <c r="G8" s="61" t="n"/>
+      <c r="H8" s="53" t="n"/>
       <c r="I8" s="54" t="n"/>
       <c r="J8" s="61" t="n"/>
       <c r="K8" s="53" t="n"/>
@@ -13701,30 +13687,22 @@
       <c r="A9" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C9" s="54" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" s="61" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E9" s="53" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" s="54" t="n"/>
-      <c r="G9" s="61" t="n"/>
-      <c r="H9" s="53" t="n"/>
-      <c r="I9" s="54" t="n">
+      <c r="B9" s="34" t="n"/>
+      <c r="C9" s="54" t="n"/>
+      <c r="D9" s="61" t="n"/>
+      <c r="E9" s="53" t="n"/>
+      <c r="F9" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="61" t="n">
+      <c r="G9" s="61" t="n">
         <v>183</v>
       </c>
-      <c r="K9" s="53" t="n">
+      <c r="H9" s="53" t="n">
         <v>3</v>
       </c>
+      <c r="I9" s="54" t="n"/>
+      <c r="J9" s="61" t="n"/>
+      <c r="K9" s="53" t="n"/>
       <c r="L9" s="54" t="n"/>
       <c r="M9" s="61" t="n"/>
       <c r="N9" s="53" t="n"/>
@@ -13778,18 +13756,18 @@
       <c r="F11" s="54" t="n"/>
       <c r="G11" s="61" t="n"/>
       <c r="H11" s="53" t="n"/>
-      <c r="I11" s="54" t="n"/>
-      <c r="J11" s="61" t="n"/>
-      <c r="K11" s="53" t="n"/>
-      <c r="L11" s="54" t="n">
+      <c r="I11" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="M11" s="61" t="n">
+      <c r="J11" s="61" t="n">
         <v>305</v>
       </c>
-      <c r="N11" s="53" t="n">
+      <c r="K11" s="53" t="n">
         <v>5</v>
       </c>
+      <c r="L11" s="54" t="n"/>
+      <c r="M11" s="61" t="n"/>
+      <c r="N11" s="53" t="n"/>
       <c r="O11" s="54" t="n"/>
       <c r="P11" s="61" t="n"/>
       <c r="Q11" s="53" t="n"/>
@@ -13815,18 +13793,18 @@
       <c r="I12" s="54" t="n"/>
       <c r="J12" s="61" t="n"/>
       <c r="K12" s="53" t="n"/>
-      <c r="L12" s="54" t="n"/>
-      <c r="M12" s="61" t="n"/>
-      <c r="N12" s="53" t="n"/>
-      <c r="O12" s="54" t="n">
+      <c r="L12" s="54" t="n">
         <v>6</v>
       </c>
-      <c r="P12" s="61" t="n">
+      <c r="M12" s="61" t="n">
         <v>366</v>
       </c>
-      <c r="Q12" s="53" t="n">
+      <c r="N12" s="53" t="n">
         <v>6</v>
       </c>
+      <c r="O12" s="54" t="n"/>
+      <c r="P12" s="61" t="n"/>
+      <c r="Q12" s="53" t="n"/>
       <c r="R12" s="54" t="n"/>
       <c r="S12" s="61" t="n"/>
       <c r="T12" s="53" t="n"/>
@@ -13852,18 +13830,18 @@
       <c r="L13" s="54" t="n"/>
       <c r="M13" s="61" t="n"/>
       <c r="N13" s="53" t="n"/>
-      <c r="O13" s="54" t="n"/>
-      <c r="P13" s="61" t="n"/>
-      <c r="Q13" s="53" t="n"/>
-      <c r="R13" s="54" t="n">
+      <c r="O13" s="54" t="n">
         <v>7</v>
       </c>
-      <c r="S13" s="61" t="n">
+      <c r="P13" s="61" t="n">
         <v>427</v>
       </c>
-      <c r="T13" s="53" t="n">
+      <c r="Q13" s="53" t="n">
         <v>7</v>
       </c>
+      <c r="R13" s="54" t="n"/>
+      <c r="S13" s="61" t="n"/>
+      <c r="T13" s="53" t="n"/>
       <c r="U13" s="54" t="n"/>
       <c r="V13" s="61" t="n"/>
       <c r="W13" s="53" t="n"/>
@@ -13886,9 +13864,15 @@
       <c r="L14" s="54" t="n"/>
       <c r="M14" s="61" t="n"/>
       <c r="N14" s="53" t="n"/>
-      <c r="O14" s="54" t="n"/>
-      <c r="P14" s="61" t="n"/>
-      <c r="Q14" s="53" t="n"/>
+      <c r="O14" s="54" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" s="61" t="n">
+        <v>488</v>
+      </c>
+      <c r="Q14" s="53" t="n">
+        <v>8</v>
+      </c>
       <c r="R14" s="54" t="n">
         <v>8</v>
       </c>
@@ -13898,15 +13882,9 @@
       <c r="T14" s="53" t="n">
         <v>8</v>
       </c>
-      <c r="U14" s="54" t="n">
-        <v>8</v>
-      </c>
-      <c r="V14" s="61" t="n">
-        <v>488</v>
-      </c>
-      <c r="W14" s="53" t="n">
-        <v>8</v>
-      </c>
+      <c r="U14" s="54" t="n"/>
+      <c r="V14" s="61" t="n"/>
+      <c r="W14" s="53" t="n"/>
       <c r="X14" s="55" t="n"/>
     </row>
     <row r="15" ht="30" customHeight="1">
@@ -13932,9 +13910,15 @@
       <c r="R15" s="54" t="n"/>
       <c r="S15" s="61" t="n"/>
       <c r="T15" s="53" t="n"/>
-      <c r="U15" s="54" t="n"/>
-      <c r="V15" s="61" t="n"/>
-      <c r="W15" s="53" t="n"/>
+      <c r="U15" s="54" t="n">
+        <v>9</v>
+      </c>
+      <c r="V15" s="61" t="n">
+        <v>549</v>
+      </c>
+      <c r="W15" s="53" t="n">
+        <v>9</v>
+      </c>
       <c r="X15" s="55" t="n"/>
     </row>
     <row r="16" ht="30" customHeight="1">
@@ -14273,11 +14257,7 @@
       </c>
       <c r="B5" s="27" t="n"/>
       <c r="C5" s="49" t="n"/>
-      <c r="D5" s="60" t="inlineStr">
-        <is>
-          <t>2021-09-03</t>
-        </is>
-      </c>
+      <c r="D5" s="60" t="n"/>
       <c r="E5" s="50" t="n"/>
       <c r="F5" s="49" t="n"/>
       <c r="G5" s="60" t="n"/>
@@ -14421,18 +14401,10 @@
       <c r="A7" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="n">
-        <v>111</v>
-      </c>
-      <c r="C7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="61" t="n">
-        <v>61</v>
-      </c>
-      <c r="E7" s="53" t="n">
-        <v>1</v>
-      </c>
+      <c r="B7" s="34" t="n"/>
+      <c r="C7" s="54" t="n"/>
+      <c r="D7" s="61" t="n"/>
+      <c r="E7" s="53" t="n"/>
       <c r="F7" s="54" t="n"/>
       <c r="G7" s="61" t="n"/>
       <c r="H7" s="53" t="n"/>
